--- a/data/trans_orig/P32E$bar_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7B28DF-F0F2-4318-905C-4F54F7B77271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EABED5-F653-4A06-B418-F44BD98B3B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{715419CC-6128-49BB-A439-CDCF990761E9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0482EBF3-9033-4E28-BD5D-2E47247225FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="287">
-  <si>
-    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) en 2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="301">
+  <si>
+    <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -59,841 +59,883 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Bares, pub, restaurantes</t>
   </si>
   <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
   </si>
   <si>
     <t>25,54%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>Casas de amistades, familiares</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>En la calle</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>Conciertos, eventos</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>16,18%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>Casas de amistades, familiares</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>En la calle</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>Conciertos, eventos</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>47,44%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>55,34%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1308,8 +1350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F14789-01E6-4EEC-B62D-15BCC82A2464}">
-  <dimension ref="A1:K39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCB6D15-80C4-4877-A049-D4EEE19F94DC}">
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1745,16 +1787,16 @@
         <v>102</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1763,31 +1805,31 @@
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="I15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1796,13 +1838,13 @@
         <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>49</v>
@@ -1811,16 +1853,16 @@
         <v>50</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1829,13 +1871,13 @@
         <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>49</v>
@@ -1844,16 +1886,16 @@
         <v>50</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1868,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>49</v>
@@ -1877,7 +1919,7 @@
         <v>50</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>49</v>
@@ -1886,42 +1928,42 @@
         <v>50</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1930,31 +1972,31 @@
         <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="I20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="J20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1963,31 +2005,31 @@
         <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="I21" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="J21" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1996,31 +2038,31 @@
         <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="I22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -2029,13 +2071,13 @@
         <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>49</v>
@@ -2044,51 +2086,51 @@
         <v>50</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="H24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -2097,31 +2139,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -2130,31 +2172,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -2169,25 +2211,25 @@
         <v>50</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -2202,7 +2244,7 @@
         <v>50</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>49</v>
@@ -2211,7 +2253,7 @@
         <v>50</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>49</v>
@@ -2220,42 +2262,42 @@
         <v>50</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="H29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -2264,31 +2306,31 @@
         <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -2297,31 +2339,31 @@
         <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="J31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -2330,31 +2372,31 @@
         <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -2363,13 +2405,13 @@
         <v>48</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>49</v>
@@ -2378,51 +2420,51 @@
         <v>50</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>49</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="I34" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="J34" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -2431,31 +2473,31 @@
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -2464,31 +2506,31 @@
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>261</v>
+        <v>55</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>265</v>
+        <v>49</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>266</v>
+        <v>50</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2497,31 +2539,31 @@
         <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>268</v>
+        <v>49</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2530,45 +2572,213 @@
         <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="H41" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="J41" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H38" s="7" t="s">
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="D42" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="E42" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="F42" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="G42" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="H42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>

--- a/data/trans_orig/P32E$bar_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32E$bar_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
+          <t>Población según los lugares donde se realiza el consumo de alcohol (atracón) (multirrespuesta) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
